--- a/datasets/cobb_county_new_tract.xlsx
+++ b/datasets/cobb_county_new_tract.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\史祎苇\研究生课程\暑期项目\eviction\Atlanta Eviction Prediction github\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265202F9-6EC7-4713-8D73-3B9CD0CDBD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E07AE6-CEE5-469F-B194-E5A2BD3E0753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,12 +76,6 @@
     <t>305.10</t>
   </si>
   <si>
-    <t>307.00</t>
-  </si>
-  <si>
-    <t>308.00</t>
-  </si>
-  <si>
     <t>309.10</t>
   </si>
   <si>
@@ -104,6 +98,12 @@
   </si>
   <si>
     <t>315.10</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>308</t>
   </si>
 </sst>
 </file>
@@ -402,8 +402,8 @@
   </sheetPr>
   <dimension ref="A1:B187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="E130" sqref="E130"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1317,18 +1317,18 @@
     </row>
     <row r="114" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
@@ -1357,7 +1357,7 @@
     </row>
     <row r="119" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B119" s="3">
         <v>309.04000000000002</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="130" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B130" s="3">
         <v>311.06</v>
@@ -1469,10 +1469,10 @@
     </row>
     <row r="133" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
@@ -1565,7 +1565,7 @@
     </row>
     <row r="145" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B145" s="3">
         <v>312.06</v>
@@ -1685,10 +1685,10 @@
     </row>
     <row r="160" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
@@ -1696,7 +1696,7 @@
         <v>313.20999999999998</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
@@ -1765,7 +1765,7 @@
     </row>
     <row r="170" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B170" s="3">
         <v>314.05</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="177" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B177" s="3">
         <v>315.02999999999997</v>
